--- a/Documents/ØiR - Domain - Debitor.xlsx
+++ b/Documents/ØiR - Domain - Debitor.xlsx
@@ -891,7 +891,7 @@
     <t xml:space="preserve">Ukendt fejl. En generel valideringsmæssig fejl, hvor der ikke findes en specifik fejlkode. </t>
   </si>
   <si>
-    <t xml:space="preserve">½½½½½½</t>
+    <t xml:space="preserve">Gul betyder at testdata er klar</t>
   </si>
   <si>
     <t xml:space="preserve">Rød betyder at vi skal have afklaret data til at udløse fejlen</t>
@@ -6879,11 +6879,11 @@
   <dimension ref="A1:BS132"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="BR6" activeCellId="0" sqref="BR6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
